--- a/M05/Proyecto Integrador/3 Gaming/2 Console_sales.xlsx
+++ b/M05/Proyecto Integrador/3 Gaming/2 Console_sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Statuto\Desktop\Data Analytics\Proyecto integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b4d84f7aab17a00/Documentos/SoyHenry/M05/Proyecto Integrador/3 Gaming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6CD57A-F31A-41AE-B80A-650A684F409D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EC6CD57A-F31A-41AE-B80A-650A684F409D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AFF9A90-EFAF-46FD-B8A0-1A59ECB39AD9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2CF4826C-6CD7-4FEA-8BF1-5EC9C732FF3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2CF4826C-6CD7-4FEA-8BF1-5EC9C732FF3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas anual" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ventas anual'!$A$1:$E$85</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -153,7 +158,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -453,10 +458,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
